--- a/data/processed/to_review.xlsx
+++ b/data/processed/to_review.xlsx
@@ -1478,7 +1478,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0400 60% cotton, 40% polyester, 400 gm2</t>
+          <t>0400 60% cotton, 40% polyester</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1487,7 +1487,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>400</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>0400</t>
@@ -1495,7 +1497,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'cotton,': 60.0, 'polyester, 400 gm2': 40.0}</t>
+          <t>{'cotton,': 60.0, 'polyester': 40.0}</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1534,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2800 55% cotton, 45% polyester, 400 gm2</t>
+          <t>2800 55% cotton, 45% polyester</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1541,7 +1543,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>400</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>2800</t>
@@ -1549,7 +1553,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'cotton,': 55.0, 'polyester, 400 gm2': 45.0}</t>
+          <t>{'cotton,': 55.0, 'polyester': 45.0}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2520,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>reinforcement 1: 100% polyester cordura, 320 gm2</t>
+          <t>reinforcement 1: 100% polyester cordura</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2525,7 +2529,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>320</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>reinforcement 1</t>
@@ -2533,7 +2539,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{'polyester cordura, 320 gm2': 100.0}</t>
+          <t>{'polyester cordura': 100.0}</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2574,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>reinforcement 2: 100% polyamide cordura, 205 gm2</t>
+          <t>reinforcement 2: 100% polyamide cordura</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2577,7 +2583,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>205</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>reinforcement 2</t>
@@ -2585,7 +2593,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'polyamide cordura, 205 gm2': 100.0}</t>
+          <t>{'polyamide cordura': 100.0}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2624,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>stretch cordura 88% polyamide cordura ,12% elastane, 270 gm2</t>
+          <t>stretch cordura 88% polyamide cordura ,12% elastane</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2625,7 +2633,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>270</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>stretch cordura</t>
@@ -2633,7 +2643,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'polyamide cordura ,': 88.0, 'elastane, 270 gm2': 12.0}</t>
+          <t>{'polyamide cordura ,': 88.0, 'elastane': 12.0}</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2674,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>stretch cordura 88% polyamide cordura ,12% elastane, 270 gm2</t>
+          <t>stretch cordura 88% polyamide cordura ,12% elastane</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2673,7 +2683,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>270</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>stretch cordura</t>
@@ -2681,7 +2693,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'polyamide cordura ,': 88.0, 'elastane, 270 gm2': 12.0}</t>
+          <t>{'polyamide cordura ,': 88.0, 'elastane': 12.0}</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2728,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>stretch cordura 88% polyamide cordura ,12% elastane, 270 gm2</t>
+          <t>stretch cordura 88% polyamide cordura ,12% elastane</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2725,7 +2737,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>270</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>stretch cordura</t>
@@ -2733,7 +2747,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'polyamide cordura ,': 88.0, 'elastane, 270 gm2': 12.0}</t>
+          <t>{'polyamide cordura ,': 88.0, 'elastane': 12.0}</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2778,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>stretch cordura 88% polyamide cordura ,12% elastane, 270 gm2</t>
+          <t>stretch cordura 88% polyamide cordura ,12% elastane</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2773,7 +2787,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>270</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>stretch cordura</t>
@@ -2781,7 +2797,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'polyamide cordura ,': 88.0, 'elastane, 270 gm2': 12.0}</t>
+          <t>{'polyamide cordura ,': 88.0, 'elastane': 12.0}</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2832,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>stretch cordura 88% polyamide cordura ,12% elastane, 270 gm2</t>
+          <t>stretch cordura 88% polyamide cordura ,12% elastane</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2825,7 +2841,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>270</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>stretch cordura</t>
@@ -2833,7 +2851,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'polyamide cordura ,': 88.0, 'elastane, 270 gm2': 12.0}</t>
+          <t>{'polyamide cordura ,': 88.0, 'elastane': 12.0}</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2980,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>contrast 1: 88% polyamide cordura; 12% elastan, 275 gm2</t>
+          <t>contrast 1: 88% polyamide cordura; 12% elastan</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2971,7 +2989,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>275</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>contrast 1</t>
@@ -2979,7 +2999,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'polyamide cordura;': 88.0, 'elastan, 275 gm2': 12.0}</t>
+          <t>{'polyamide cordura;': 88.0, 'elastan': 12.0}</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3330,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>reinforcement 1: 100% polyamide cordura, 275 gm2</t>
+          <t>reinforcement 1: 100% polyamide cordura</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -3319,7 +3339,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>275</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>reinforcement 1</t>
@@ -3327,7 +3349,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{'polyamide cordura, 275 gm2': 100.0}</t>
+          <t>{'polyamide cordura': 100.0}</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3380,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>reinforcement 2: 100% polyamide, 290 gm2</t>
+          <t>reinforcement 2: 100% polyamide</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3367,7 +3389,9 @@
           <t>main</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>290</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>reinforcement 2</t>
@@ -3375,7 +3399,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'polyamide, 290 gm2': 100.0}</t>
+          <t>{'polyamide': 100.0}</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3710,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3715,7 +3739,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5000 gm2 breathability</t>
+          <t>breathability</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -3727,7 +3751,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>5000 gm2 breathability</t>
+          <t>breathability</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3738,7 +3762,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3790,7 +3814,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3838,7 +3862,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3890,7 +3914,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3946,7 +3970,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3998,7 +4022,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4046,7 +4070,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4096,7 +4120,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4144,7 +4168,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4173,7 +4197,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>x% polyamide; x% wool; x% elastane xgm2</t>
+          <t>x% polyamide; x% wool; x% elastane xgsm</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4185,7 +4209,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>x% polyamide; x% wool; x% elastane xgm2</t>
+          <t>x% polyamide; x% wool; x% elastane xgsm</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4196,7 +4220,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4225,7 +4249,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>x% polyamide; x% wool; x% elastane xgm2</t>
+          <t>x% polyamide; x% wool; x% elastane xgsm</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -4237,7 +4261,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>x% polyamide; x% wool; x% elastane xgm2</t>
+          <t>x% polyamide; x% wool; x% elastane xgsm</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4248,7 +4272,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4277,7 +4301,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>x% polyamide, x% polypropylene, x% elastane, x gm2</t>
+          <t>x% polyamide, x% polypropylene, x% elastane, x gsm</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4289,7 +4313,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>x% polyamide  x% polypropylene  x% elastane  x gm2</t>
+          <t>x% polyamide  x% polypropylene  x% elastane  x gsm</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4300,7 +4324,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4329,7 +4353,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>x% polyamide, x% polypropylene, x% elastane, x gm2</t>
+          <t>x% polyamide, x% polypropylene, x% elastane, x gsm</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -4341,7 +4365,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>x% polyamide  x% polypropylene  x% elastane  x gm2</t>
+          <t>x% polyamide  x% polypropylene  x% elastane  x gsm</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4352,7 +4376,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4400,7 +4424,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4453,7 +4477,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4505,7 +4529,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
